--- a/test cases online form qa project.xlsx
+++ b/test cases online form qa project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\QA\Energy Telecom\online-form-qa-web-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6969E42A-C54A-4580-9A01-66A98EB5FA92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FA5A7-F70F-449A-9E19-B4D9C544BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF8987C0-AF44-4A8B-90C3-2EFA4B12EAE6}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t xml:space="preserve">Letter only </t>
   </si>
   <si>
-    <t>Tipe "Test" in "First Name" field</t>
-  </si>
-  <si>
     <t>First Name accepted</t>
   </si>
   <si>
@@ -69,36 +66,24 @@
     <t>Letter + digits</t>
   </si>
   <si>
-    <t>Tipe "Test1" in "First Name" field</t>
-  </si>
-  <si>
     <t>First Name 3</t>
   </si>
   <si>
     <t>Letter + sp. characters</t>
   </si>
   <si>
-    <t>Tipe "Test$" in "First Name" field</t>
-  </si>
-  <si>
     <t>First Name 4</t>
   </si>
   <si>
     <t>Boundary 1 character</t>
   </si>
   <si>
-    <t>Tipe "T" in "First Name" field</t>
-  </si>
-  <si>
     <t>First Name 5</t>
   </si>
   <si>
     <t>Boundary 31 characters</t>
   </si>
   <si>
-    <t>Tipe "Test1234567890qwertyuiopasdfghj" in "First Name" field (31 characters)</t>
-  </si>
-  <si>
     <t>First 30 characters accepted</t>
   </si>
   <si>
@@ -111,12 +96,6 @@
     <t>Boundary 32 characters</t>
   </si>
   <si>
-    <t>Tipe "Test1234567890qwertyuiopasdfghj1" in "First Name" field (32 characters)</t>
-  </si>
-  <si>
-    <t>First 31 characters tiped and accepted</t>
-  </si>
-  <si>
     <t>First Name 7</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>Last Name 1</t>
   </si>
   <si>
-    <t>Tipe "Simon" in "Last Name" field</t>
-  </si>
-  <si>
     <t>Last Name accepted</t>
   </si>
   <si>
@@ -156,33 +132,18 @@
     <t>Last Name 3</t>
   </si>
   <si>
-    <t>Tipe "Simon$" in "Last Name" field</t>
-  </si>
-  <si>
     <t>Last Name 4</t>
   </si>
   <si>
-    <t>Tipe "S" in "Last Name" field</t>
-  </si>
-  <si>
     <t>Last Name 5</t>
   </si>
   <si>
-    <t>Tipe "Simon1234567890qwertyuiopasdfgh" in "Last Name" field (31 characters)</t>
-  </si>
-  <si>
     <t>31 characters accepted</t>
   </si>
   <si>
-    <t>First 30 characters tiped and accepted</t>
-  </si>
-  <si>
     <t>Last Name 6</t>
   </si>
   <si>
-    <t>Tipe "Test1234567890qwertyuiopasdfgh1" in "Last Name" field (32 characters)</t>
-  </si>
-  <si>
     <t>Last Name 7</t>
   </si>
   <si>
@@ -201,54 +162,30 @@
     <t>Street Address 1</t>
   </si>
   <si>
-    <t>Tipe "Union aveneu" in "Street Address" field</t>
-  </si>
-  <si>
     <t>Street Address accepted</t>
   </si>
   <si>
     <t>Street Address 2</t>
   </si>
   <si>
-    <t>Tipe "1044 Union aveneu" in "Street Address" field</t>
-  </si>
-  <si>
     <t>Street Address 3</t>
   </si>
   <si>
-    <t>Tipe "1044 Union ave." in "Street Address" field</t>
-  </si>
-  <si>
     <t>Street Address 4</t>
   </si>
   <si>
-    <t>Tipe "1" in "Street Address" field</t>
-  </si>
-  <si>
     <t>Street Address 5</t>
   </si>
   <si>
     <t>Boundary 255 characters</t>
   </si>
   <si>
-    <t>Tipe "1044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu12345678Union" in "Street Address" field (256 characters)</t>
-  </si>
-  <si>
-    <t>First 100 characters tiped and accepted</t>
-  </si>
-  <si>
     <t>Street Address 6</t>
   </si>
   <si>
     <t>Boundary 256 characters</t>
   </si>
   <si>
-    <t>Tipe "1044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu12345678Union1" in "Street Address" field (256 characters)</t>
-  </si>
-  <si>
-    <t>First 255 characters tiped and accepted</t>
-  </si>
-  <si>
     <t>First 100 characters pasted and accepted</t>
   </si>
   <si>
@@ -273,51 +210,30 @@
     <t>City 1</t>
   </si>
   <si>
-    <t>Tipe "Seattle" in "City" field</t>
-  </si>
-  <si>
     <t>City accepted</t>
   </si>
   <si>
     <t>City 2</t>
   </si>
   <si>
-    <t>Tipe "Seattle1" in "City" field</t>
-  </si>
-  <si>
     <t>City 3</t>
   </si>
   <si>
-    <t>Tipe "Seattle$" in "City" field</t>
-  </si>
-  <si>
     <t>City 4</t>
   </si>
   <si>
-    <t>Tipe "S" in "City" field</t>
-  </si>
-  <si>
     <t>City 5</t>
   </si>
   <si>
     <t>Boundary 50 characters</t>
   </si>
   <si>
-    <t>Tipe "Seattle123Seattle123Seattle123Seattle123Seattle123" in "City" field (50 characters)</t>
-  </si>
-  <si>
     <t>City 6</t>
   </si>
   <si>
     <t>Boundary 51 characters</t>
   </si>
   <si>
-    <t>Tipe "Seattle123Seattle123Seattle123Seattle123Seattle123S" in "City" field (51 characters)</t>
-  </si>
-  <si>
-    <t>First 50 characters tiped and accepted</t>
-  </si>
-  <si>
     <t>City 7</t>
   </si>
   <si>
@@ -378,9 +294,6 @@
     <t>Existing ZIP, 5 characters, Digits only</t>
   </si>
   <si>
-    <t>Tipe "98101" in "ZIP" field</t>
-  </si>
-  <si>
     <t>ZIP accepted</t>
   </si>
   <si>
@@ -390,42 +303,18 @@
     <t>Digits + Letter, 5 characters</t>
   </si>
   <si>
-    <t>Tipe "9810i" in "ZIP" field</t>
-  </si>
-  <si>
-    <t>9810 tiped</t>
-  </si>
-  <si>
-    <t>9810i tiped</t>
-  </si>
-  <si>
     <t>ZIP 3</t>
   </si>
   <si>
     <t>Digits + sp. characters, 5 characters</t>
   </si>
   <si>
-    <t>Tipe "9810/" in "ZIP" field</t>
-  </si>
-  <si>
-    <t>9810/ tiped</t>
-  </si>
-  <si>
-    <t>9811/ tiped</t>
-  </si>
-  <si>
     <t>ZIP 4</t>
   </si>
   <si>
     <t>Boundary, more than 5 character</t>
   </si>
   <si>
-    <t>Tipe "981011" in "ZIP" field</t>
-  </si>
-  <si>
-    <t>First 5 haracters tiped</t>
-  </si>
-  <si>
     <t>ZIP 5</t>
   </si>
   <si>
@@ -453,9 +342,6 @@
     <t>No existing ZIP</t>
   </si>
   <si>
-    <t>Tipe "00001" in "ZIP" field</t>
-  </si>
-  <si>
     <t>"ZIP non-existing" Error message</t>
   </si>
   <si>
@@ -468,9 +354,6 @@
     <t>valid local/@/valid domain</t>
   </si>
   <si>
-    <t>Tipe "project_99@gmail.com" in "Email" field</t>
-  </si>
-  <si>
     <t>Email accepted</t>
   </si>
   <si>
@@ -480,18 +363,12 @@
     <t>64 characters /@/valid domain</t>
   </si>
   <si>
-    <t>Tipe "project_99project_99project_99project_99project_99project_991234@gmail.com" in "Email" field</t>
-  </si>
-  <si>
     <t>Email 3</t>
   </si>
   <si>
     <t>65 characters /@/domain.com</t>
   </si>
   <si>
-    <t>Tipe "project_99project_99project_99project_99project_99project_9912345@gmail.com" in "Email" field</t>
-  </si>
-  <si>
     <t>Email rejected, "invalid Email" Error message</t>
   </si>
   <si>
@@ -501,45 +378,30 @@
     <t>64 characters /@/255 characters</t>
   </si>
   <si>
-    <t>Tipe "project_99project_99project_99project_99project_99project_991234@gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail.com" in "Email" field</t>
-  </si>
-  <si>
     <t>Email 5</t>
   </si>
   <si>
     <t>invalid local part/@/ valid domain</t>
   </si>
   <si>
-    <t>Tipe ".project_99@gmail.com" in "Email" field</t>
-  </si>
-  <si>
     <t>Email 6</t>
   </si>
   <si>
     <t>valid local part/@/invalid domain</t>
   </si>
   <si>
-    <t>Tipe "project_99@gmail..com" in "Email" field</t>
-  </si>
-  <si>
     <t>Email 7</t>
   </si>
   <si>
     <t>empty local part /@/valid domain</t>
   </si>
   <si>
-    <t>Tipe "@gmail.com" in "Email" field</t>
-  </si>
-  <si>
     <t>Email 8</t>
   </si>
   <si>
     <t>valid local part /no @/valid domain</t>
   </si>
   <si>
-    <t>Tipe "project_99gmail.com" in "Email" field</t>
-  </si>
-  <si>
     <t>Email 9</t>
   </si>
   <si>
@@ -555,18 +417,12 @@
     <t>Digits only, exist number(3 edit boxes, 3-3-4 characters format)</t>
   </si>
   <si>
-    <t>Tipe "877"-"428"-"9481" in "Phone" field</t>
-  </si>
-  <si>
     <t>Phone accepted</t>
   </si>
   <si>
     <t>Digits only, no exist number(3 edit boxes, 3-3-4 characters format)</t>
   </si>
   <si>
-    <t>Tipe "000"-"000"-"0001" in "Phone" field</t>
-  </si>
-  <si>
     <t>"invalid phone number" Error message</t>
   </si>
   <si>
@@ -576,102 +432,60 @@
     <t>Digits + letter  field1(3 edit boxes, 3-3-4 characters format)</t>
   </si>
   <si>
-    <t>Tipe "87z"-"428"-"9481" in "Phone" field</t>
-  </si>
-  <si>
-    <t>"87"-"428"-"9481" tiped, "invalid phone number" Error message</t>
-  </si>
-  <si>
     <t>Phont 3</t>
   </si>
   <si>
     <t>Digits + letter field2 (3 edit boxes, 3-3-4 characters format)</t>
   </si>
   <si>
-    <t>Tipe "877"-"42h"-"9481" in "Phone" field</t>
-  </si>
-  <si>
-    <t>"877"-"42"-"9481" tiped, "invalid phone number" Error message</t>
-  </si>
-  <si>
     <t>Phont 4</t>
   </si>
   <si>
     <t>Digits + letter field3 (3 edit boxes, 3-3-4 characters format)</t>
   </si>
   <si>
-    <t>Tipe "877"-"428"-"948i" in "Phone" field</t>
-  </si>
-  <si>
-    <t>"877"-"428"-"948" tiped, "invalid phone number" Error message</t>
-  </si>
-  <si>
     <t>Phont 5</t>
   </si>
   <si>
     <t>Digits + sp. Characters field1 (3 edit boxes, 3-3-4 characters format)</t>
   </si>
   <si>
-    <t>Tipe "87&amp;"-"428"-"9481" in "Phone" field</t>
-  </si>
-  <si>
     <t>Phont 6</t>
   </si>
   <si>
     <t>Digits + sp. Characters field2 (3 edit boxes, 3-3-4 characters format)</t>
   </si>
   <si>
-    <t>Tipe "877"-"42*"-"9481" in "Phone" field</t>
-  </si>
-  <si>
     <t>Phont 7</t>
   </si>
   <si>
     <t>Digits + sp. characters field3 (3 edit boxes, 3-3-4 characters format)</t>
   </si>
   <si>
-    <t>Tipe "877"-"428"-"948!" in "Phone" field</t>
-  </si>
-  <si>
     <t>Phont 8</t>
   </si>
   <si>
     <t>Boundary, digits only (3 edit boxes, 4-3-4 wrong characters format)</t>
   </si>
   <si>
-    <t>Tipe "8777"-"428"-"9481" in "Phone" field</t>
-  </si>
-  <si>
-    <t>"877"-"428"-"9481" tiped, Phone accepted</t>
-  </si>
-  <si>
     <t>Phont 9</t>
   </si>
   <si>
     <t>Boundary, digits only (3 edit boxes, 3-4-4 wrong characters format)</t>
   </si>
   <si>
-    <t>Tipe "877"-"4288"-"9481" in "Phone" field</t>
-  </si>
-  <si>
     <t>Phont 10</t>
   </si>
   <si>
     <t>Boundary, digits only (3 edit boxes, 3-3-5 wrong characters format)</t>
   </si>
   <si>
-    <t>Tipe "877"-"428"-"94811" in "Phone" field</t>
-  </si>
-  <si>
     <t>Phont 11</t>
   </si>
   <si>
     <t>Boundary, digits only (3 edit boxes, 2-3-4  wrong characters format)</t>
   </si>
   <si>
-    <t>Tipe "87"-"428"-"9481" in "Phone" field</t>
-  </si>
-  <si>
     <t>invalid phone format Error message</t>
   </si>
   <si>
@@ -681,9 +495,6 @@
     <t>Boundary, digits only (3 edit boxes, 3-2-4  wrong characters format)</t>
   </si>
   <si>
-    <t>Tipe "877"-"42"-"9481" in "Phone" field</t>
-  </si>
-  <si>
     <t>Phont 13</t>
   </si>
   <si>
@@ -834,43 +645,240 @@
     <t>Referred by 1</t>
   </si>
   <si>
-    <t>Tipe "Test" in "Referred by " field</t>
-  </si>
-  <si>
     <t>Referred by  accepted</t>
   </si>
   <si>
     <t>Referred by 2</t>
   </si>
   <si>
-    <t>Tipe "Test1" in "Referred by " field</t>
-  </si>
-  <si>
     <t>Referred by 3</t>
   </si>
   <si>
-    <t>Tipe "Test$" in "Referred by " field</t>
-  </si>
-  <si>
     <t>Referred by 4</t>
   </si>
   <si>
-    <t>Tipe nothing</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Empty "Referred by " field</t>
+  </si>
+  <si>
+    <t>Type "Simon" in "Last Name" field</t>
+  </si>
+  <si>
+    <t>Type "Simon$" in "Last Name" field</t>
+  </si>
+  <si>
+    <t>Type "S" in "Last Name" field</t>
+  </si>
+  <si>
+    <t>Type "Simon1234567890qwertyuiopasdfgh" in "Last Name" field (31 characters)</t>
+  </si>
+  <si>
+    <t>Type "Test1234567890qwertyuiopasdfgh1" in "Last Name" field (32 characters)</t>
+  </si>
+  <si>
+    <t>Type "Union aveneu" in "Street Address" field</t>
+  </si>
+  <si>
+    <t>Type "1044 Union aveneu" in "Street Address" field</t>
+  </si>
+  <si>
+    <t>Type "1044 Union ave." in "Street Address" field</t>
+  </si>
+  <si>
+    <t>Type "1" in "Street Address" field</t>
+  </si>
+  <si>
+    <t>Type "1044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu12345678Union" in "Street Address" field (256 characters)</t>
+  </si>
+  <si>
+    <t>Type "1044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu12345678Union1" in "Street Address" field (256 characters)</t>
+  </si>
+  <si>
+    <t>First 255 characters typed and accepted</t>
+  </si>
+  <si>
+    <t>First 31 characters typed and accepted</t>
+  </si>
+  <si>
+    <t>Type "Seattle" in "City" field</t>
+  </si>
+  <si>
+    <t>Type "Seattle1" in "City" field</t>
+  </si>
+  <si>
+    <t>Type "Seattle$" in "City" field</t>
+  </si>
+  <si>
+    <t>Type "S" in "City" field</t>
+  </si>
+  <si>
+    <t>Type "Seattle123Seattle123Seattle123Seattle123Seattle123" in "City" field (50 characters)</t>
+  </si>
+  <si>
+    <t>Type "Seattle123Seattle123Seattle123Seattle123Seattle123S" in "City" field (51 characters)</t>
+  </si>
+  <si>
+    <t>First 50 characters typed and accepted</t>
+  </si>
+  <si>
+    <t>Type "Test" in "First Name" field</t>
+  </si>
+  <si>
+    <t>Type "Test1" in "First Name" field</t>
+  </si>
+  <si>
+    <t>Type "Test$" in "First Name" field</t>
+  </si>
+  <si>
+    <t>Type "T" in "First Name" field</t>
+  </si>
+  <si>
+    <t>Type "Test1234567890qwertyuiopasdfghj" in "First Name" field (31 characters)</t>
+  </si>
+  <si>
+    <t>Type "Test1234567890qwertyuiopasdfghj1" in "First Name" field (32 characters)</t>
+  </si>
+  <si>
+    <t>Type "98101" in "ZIP" field</t>
+  </si>
+  <si>
+    <t>Type "9810i" in "ZIP" field</t>
+  </si>
+  <si>
+    <t>9810 typed</t>
+  </si>
+  <si>
+    <t>9810i typed</t>
+  </si>
+  <si>
+    <t>9811/ typed</t>
+  </si>
+  <si>
+    <t>First 5 haracters typed</t>
+  </si>
+  <si>
+    <t>Type "00001" in "ZIP" field</t>
+  </si>
+  <si>
+    <t>Type "project_99@gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "project_99project_99project_99project_99project_99project_991234@gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "project_99project_99project_99project_99project_99project_9912345@gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "project_99project_99project_99project_99project_99project_991234@gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail12345gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type ".project_99@gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "project_99@gmail..com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "@gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "project_99gmail.com" in "Email" field</t>
+  </si>
+  <si>
+    <t>Type "877"-"428"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "000"-"000"-"0001" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "87z"-"428"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>"87"-"428"-"9481" typed, "invalid phone number" Error message</t>
+  </si>
+  <si>
+    <t>Type "877"-"42h"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>"877"-"42"-"9481" typed, "invalid phone number" Error message</t>
+  </si>
+  <si>
+    <t>"877"-"428"-"948" typed, "invalid phone number" Error message</t>
+  </si>
+  <si>
+    <t>"877"-"428"-"9481" typed, Phone accepted</t>
+  </si>
+  <si>
+    <t>Type "87"-"428"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "877"-"42"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "877"-"428"-"94811" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "Test" in "Referred by " field</t>
+  </si>
+  <si>
+    <t>Type "Test1" in "Referred by " field</t>
+  </si>
+  <si>
+    <t>Type "Test$" in "Referred by " field</t>
+  </si>
+  <si>
+    <t>Type nothing</t>
+  </si>
+  <si>
+    <t>Type "9810/" in "ZIP" field</t>
+  </si>
+  <si>
+    <t>Type "981011" in "ZIP" field</t>
+  </si>
+  <si>
+    <t>Type "877"-"428"-"948i" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "87&amp;"-"428"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "877"-"42*"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "877"-"428"-"948!" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "8777"-"428"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>Type "877"-"4288"-"9481" in "Phone" field</t>
+  </si>
+  <si>
+    <t>First 30 characters typed and accepted</t>
+  </si>
+  <si>
+    <t>First 100 characters typed and accepted</t>
+  </si>
+  <si>
+    <t>9810/ typed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -940,42 +948,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,8 +1309,8 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,1614 +1351,1614 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>235</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>214</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>72</v>
+        <v>220</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>221</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>95</v>
+        <v>228</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>122</v>
+        <v>237</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>127</v>
+        <v>266</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>131</v>
+        <v>267</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>183</v>
+        <v>253</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>187</v>
+        <v>255</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>191</v>
+        <v>268</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>183</v>
+        <v>269</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>187</v>
+        <v>270</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>191</v>
+        <v>271</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>204</v>
+        <v>272</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>204</v>
+        <v>273</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>204</v>
+        <v>261</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
